--- a/checkDrought/EARS_sample_index_dataset.xlsx
+++ b/checkDrought/EARS_sample_index_dataset.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="24915" windowHeight="13110" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="140" windowWidth="24920" windowHeight="13120" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="index_design" sheetId="1" r:id="rId1"/>
     <sheet name="payout_simulation_1982_2015" sheetId="2" r:id="rId2"/>
     <sheet name="payout_monitoring_2016" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -147,7 +152,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -156,10 +161,10 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -202,17 +207,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color theme="0" tint="-0.24994659260841701"/>
@@ -220,7 +215,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </font>
     </dxf>
   </dxfs>
@@ -522,22 +517,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK26"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A2" sqref="A2:A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="9.140625" style="3"/>
-    <col min="5" max="37" width="9.140625" style="1"/>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="2" max="3" width="8.83203125" style="1"/>
+    <col min="4" max="4" width="8.83203125" style="3"/>
+    <col min="5" max="37" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" s="5" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -650,7 +645,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -763,7 +758,7 @@
         <v>69.42</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -876,7 +871,7 @@
         <v>84.77</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -989,7 +984,7 @@
         <v>90.51</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
@@ -1102,7 +1097,7 @@
         <v>81.64</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37">
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
@@ -1215,7 +1210,7 @@
         <v>87.45</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
@@ -1328,7 +1323,7 @@
         <v>71.66</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
@@ -1441,7 +1436,7 @@
         <v>85.33</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -1554,7 +1549,7 @@
         <v>83.97</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -1667,7 +1662,7 @@
         <v>82.04</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -1780,7 +1775,7 @@
         <v>86.93</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37">
       <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
@@ -1893,7 +1888,7 @@
         <v>65.66</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37">
       <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
@@ -2006,7 +2001,7 @@
         <v>68.040000000000006</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
@@ -2119,7 +2114,7 @@
         <v>73.27</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37">
       <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
@@ -2232,7 +2227,7 @@
         <v>90.05</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37">
       <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
@@ -2345,7 +2340,7 @@
         <v>72.3</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37">
       <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
@@ -2458,7 +2453,7 @@
         <v>91.97</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37">
       <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
@@ -2571,7 +2566,7 @@
         <v>71.31</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37">
       <c r="A19" s="5" t="s">
         <v>20</v>
       </c>
@@ -2684,7 +2679,7 @@
         <v>87.16</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37">
       <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
@@ -2797,7 +2792,7 @@
         <v>81.62</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37">
       <c r="A21" s="5" t="s">
         <v>22</v>
       </c>
@@ -2910,7 +2905,7 @@
         <v>87.28</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37">
       <c r="A22" s="5" t="s">
         <v>23</v>
       </c>
@@ -3023,7 +3018,7 @@
         <v>76.86</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37">
       <c r="A23" s="5" t="s">
         <v>24</v>
       </c>
@@ -3136,7 +3131,7 @@
         <v>92.36</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37">
       <c r="A24" s="5" t="s">
         <v>25</v>
       </c>
@@ -3249,7 +3244,7 @@
         <v>85.33</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37">
       <c r="A25" s="5" t="s">
         <v>26</v>
       </c>
@@ -3362,7 +3357,7 @@
         <v>85.7</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37">
       <c r="A26" s="5" t="s">
         <v>27</v>
       </c>
@@ -3477,6 +3472,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3484,20 +3484,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="O45" sqref="O45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="35" width="9.140625" style="1"/>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="2" max="35" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" s="5" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -3818,7 +3818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -3925,7 +3925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35">
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
@@ -4139,7 +4139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
@@ -4353,7 +4353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -4460,7 +4460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -4567,7 +4567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -4674,7 +4674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35">
       <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
@@ -4781,7 +4781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35">
       <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
@@ -4888,7 +4888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
@@ -4995,7 +4995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35">
       <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
@@ -5102,7 +5102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35">
       <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
@@ -5209,7 +5209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35">
       <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
@@ -5316,7 +5316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35">
       <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
@@ -5423,7 +5423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35">
       <c r="A19" s="5" t="s">
         <v>20</v>
       </c>
@@ -5530,7 +5530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35">
       <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
@@ -5637,7 +5637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35">
       <c r="A21" s="5" t="s">
         <v>22</v>
       </c>
@@ -5744,7 +5744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35">
       <c r="A22" s="5" t="s">
         <v>23</v>
       </c>
@@ -5851,7 +5851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35">
       <c r="A23" s="5" t="s">
         <v>24</v>
       </c>
@@ -5958,7 +5958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35">
       <c r="A24" s="5" t="s">
         <v>25</v>
       </c>
@@ -6065,7 +6065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35">
       <c r="A25" s="5" t="s">
         <v>26</v>
       </c>
@@ -6172,7 +6172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35">
       <c r="A26" s="5" t="s">
         <v>27</v>
       </c>
@@ -6296,6 +6296,11 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6303,23 +6308,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="11" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" style="8" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="17" max="17" width="9.1640625" style="11" customWidth="1"/>
+    <col min="18" max="18" width="9.1640625" style="8" customWidth="1"/>
+    <col min="19" max="19" width="9.1640625" customWidth="1"/>
+    <col min="20" max="20" width="9.1640625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="5" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -6381,7 +6386,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -6443,7 +6448,7 @@
         <v>7.8552242959909369E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -6505,7 +6510,7 @@
         <v>0.43732783491269001</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -6567,7 +6572,7 @@
         <v>0.41293789284291338</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
@@ -6629,7 +6634,7 @@
         <v>3.3686844855904119E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20">
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
@@ -6691,7 +6696,7 @@
         <v>5.2868519223326915E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
@@ -6753,7 +6758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
@@ -6815,7 +6820,7 @@
         <v>9.3446301609460436E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -6877,7 +6882,7 @@
         <v>0.16337876436219401</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -6939,7 +6944,7 @@
         <v>0.57395780404043739</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -7001,7 +7006,7 @@
         <v>0.25947533973061598</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20">
       <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
@@ -7063,7 +7068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20">
       <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
@@ -7125,7 +7130,7 @@
         <v>0.16893712324938526</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
@@ -7187,7 +7192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20">
       <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
@@ -7249,7 +7254,7 @@
         <v>0.2231270629605413</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20">
       <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
@@ -7311,7 +7316,7 @@
         <v>4.7613450948881142E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20">
       <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
@@ -7373,7 +7378,7 @@
         <v>7.2444548501322537E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20">
       <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
@@ -7435,7 +7440,7 @@
         <v>0.28084558686665495</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20">
       <c r="A19" s="5" t="s">
         <v>20</v>
       </c>
@@ -7497,7 +7502,7 @@
         <v>0.82597620123800153</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20">
       <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
@@ -7559,7 +7564,7 @@
         <v>0.24558115025147154</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20">
       <c r="A21" s="5" t="s">
         <v>22</v>
       </c>
@@ -7621,7 +7626,7 @@
         <v>0.20362761086319925</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20">
       <c r="A22" s="5" t="s">
         <v>23</v>
       </c>
@@ -7683,7 +7688,7 @@
         <v>1.9501504173338957E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20">
       <c r="A23" s="5" t="s">
         <v>24</v>
       </c>
@@ -7745,7 +7750,7 @@
         <v>0.27047983433337208</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20">
       <c r="A24" s="5" t="s">
         <v>25</v>
       </c>
@@ -7807,7 +7812,7 @@
         <v>0.28537191915690496</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20">
       <c r="A25" s="5" t="s">
         <v>26</v>
       </c>
@@ -7869,7 +7874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20">
       <c r="A26" s="5" t="s">
         <v>27</v>
       </c>
@@ -7943,10 +7948,15 @@
         <color rgb="FFFFC000"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>